--- a/mapping_schemes/west/NGA_RES.xlsx
+++ b/mapping_schemes/west/NGA_RES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/npaul/GEM/WIP/africa/data/Africa_Map/West/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8304A05-AC1F-8844-829E-97DAF2DBB30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FB8BAD-D570-2041-BD9D-326C71E7FE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13340" yWindow="460" windowWidth="13960" windowHeight="17260" activeTab="2" xr2:uid="{FDFB1767-49BE-9748-8720-0163DBB19794}"/>
+    <workbookView xWindow="13340" yWindow="460" windowWidth="13960" windowHeight="17260" activeTab="1" xr2:uid="{FDFB1767-49BE-9748-8720-0163DBB19794}"/>
   </bookViews>
   <sheets>
     <sheet name="Material_1" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="112">
   <si>
     <t>MATO</t>
   </si>
@@ -4286,10 +4286,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF06C8A-1AE4-2949-8A97-6266F0313480}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4366,7 +4366,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="20">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4380,35 +4380,35 @@
         <v>46</v>
       </c>
       <c r="D6" s="20">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>96</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D7" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="20">
         <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4419,10 +4419,10 @@
         <v>96</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4433,10 +4433,10 @@
         <v>96</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4447,7 +4447,7 @@
         <v>96</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2">
         <v>0.25</v>
@@ -4461,10 +4461,10 @@
         <v>96</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4475,7 +4475,7 @@
         <v>96</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2">
         <v>0.15</v>
@@ -4483,27 +4483,27 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>96</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2">
-        <v>1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>96</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -4511,16 +4511,16 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="20">
-        <v>0.6</v>
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4531,10 +4531,10 @@
         <v>97</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D17" s="20">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -4545,138 +4545,165 @@
         <v>97</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D18" s="20">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.75</v>
+        <v>9</v>
+      </c>
+      <c r="D19" s="20">
+        <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.25</v>
+        <v>100</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D21" s="2">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D22" s="2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="D23" s="2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D24" s="2">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D25" s="2">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
@@ -4699,12 +4726,12 @@
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="19"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="5"/>
       <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="5"/>
       <c r="C35" s="3"/>
     </row>
@@ -4719,7 +4746,7 @@
       <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="5"/>
       <c r="C38" s="3"/>
     </row>
@@ -4729,7 +4756,7 @@
       <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="5"/>
       <c r="C40" s="3"/>
     </row>
@@ -4832,25 +4859,22 @@
       <c r="A60" s="10"/>
       <c r="B60" s="5"/>
       <c r="C60" s="3"/>
-      <c r="G60" s="19"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="10"/>
       <c r="B61" s="5"/>
       <c r="C61" s="3"/>
-      <c r="G61" s="10"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="10"/>
       <c r="B62" s="5"/>
       <c r="C62" s="3"/>
-      <c r="G62" s="10"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="10"/>
       <c r="B63" s="5"/>
       <c r="C63" s="3"/>
-      <c r="G63" s="10"/>
+      <c r="G63" s="19"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="10"/>
@@ -4880,16 +4904,19 @@
       <c r="A68" s="10"/>
       <c r="B68" s="5"/>
       <c r="C68" s="3"/>
+      <c r="G68" s="10"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="10"/>
       <c r="B69" s="5"/>
       <c r="C69" s="3"/>
+      <c r="G69" s="10"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="10"/>
       <c r="B70" s="5"/>
       <c r="C70" s="3"/>
+      <c r="G70" s="10"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="10"/>
@@ -4927,38 +4954,39 @@
       <c r="C77" s="3"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="5"/>
+      <c r="A78" s="10"/>
       <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
+      <c r="C78" s="3"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="5"/>
+      <c r="A79" s="10"/>
       <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
+      <c r="C79" s="3"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="5"/>
+      <c r="A80" s="10"/>
       <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
+      <c r="C80" s="3"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
-      <c r="C81" s="3"/>
+      <c r="C81" s="5"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
-      <c r="C82" s="3"/>
+      <c r="C82" s="5"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
-      <c r="C83" s="3"/>
+      <c r="C83" s="5"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
+      <c r="C84" s="3"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
@@ -4973,7 +5001,6 @@
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
-      <c r="C87" s="3"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
@@ -5019,6 +5046,21 @@
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5030,8 +5072,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
